--- a/cryptoinfo.xlsx
+++ b/cryptoinfo.xlsx
@@ -442,7 +442,7 @@
     <col width="35" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="25" customWidth="1" min="4" max="4"/>
-    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="35" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -454,7 +454,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Crypto Currency</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -469,7 +469,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Percent Change</t>
+          <t>Percent Change (24 hr)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -494,17 +494,17 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>$5.8046</t>
+          <t>$5.7901</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>-2.43%</t>
+          <t>-2.67%</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>$5.6635</t>
+          <t>$5.6355</t>
         </is>
       </c>
     </row>
@@ -524,17 +524,17 @@
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>$5.2145</t>
+          <t>$5.2095</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>-1.04%</t>
+          <t>-1.14%</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>$5.1603</t>
+          <t>$5.1501</t>
         </is>
       </c>
     </row>
@@ -554,17 +554,17 @@
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>$721.12</t>
+          <t>$722.49</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>-0.78%</t>
+          <t>-0.60%</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>$715.4953</t>
+          <t>$718.1551</t>
         </is>
       </c>
     </row>
@@ -584,17 +584,17 @@
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>$0.3824</t>
+          <t>$0.3823</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>-0.84%</t>
+          <t>-0.87%</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>$0.3792</t>
+          <t>$0.379</t>
         </is>
       </c>
     </row>
@@ -614,17 +614,17 @@
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>$40.43</t>
+          <t>$40.44</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>-0.83%</t>
+          <t>-0.81%</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>$40.0944</t>
+          <t>$40.1124</t>
         </is>
       </c>
     </row>
